--- a/my documents/thymio_sensors_list.xlsx
+++ b/my documents/thymio_sensors_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emscomputer/Desktop/EPFL Master ROBOTIQUE/MA2/Projet_semestre/my documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AC8782-73CC-EB41-AE3B-D87D2B7A9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214B7DA-658B-8E40-ACEA-6D37D95CF09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{08EA0C0A-504B-2E45-8C86-5ECCFE29D79F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,8 +224,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +269,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -560,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,9 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,12 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -718,9 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -730,12 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -767,6 +750,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1125,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D38" zoomScale="91" zoomScaleNormal="69" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="69" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,50 +1175,50 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="64">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10">
+      <c r="D8" s="65"/>
+      <c r="E8" s="64">
         <v>2</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12">
+      <c r="F8" s="64"/>
+      <c r="G8" s="66">
         <v>3</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10">
+      <c r="H8" s="65"/>
+      <c r="I8" s="64">
         <v>4</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12">
+      <c r="J8" s="64"/>
+      <c r="K8" s="66">
         <v>5</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10">
+      <c r="L8" s="65"/>
+      <c r="M8" s="64">
         <v>6</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="12">
+      <c r="N8" s="64"/>
+      <c r="O8" s="66">
         <v>7</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10">
+      <c r="P8" s="65"/>
+      <c r="Q8" s="64">
         <v>8</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="10">
+      <c r="R8" s="65"/>
+      <c r="S8" s="64">
         <v>9</v>
       </c>
-      <c r="T8" s="9"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
@@ -1217,62 +1230,78 @@
       <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="T11" s="14"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="18"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
@@ -1293,10 +1322,9 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -1317,13 +1345,12 @@
       <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="68"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="2"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
@@ -1341,146 +1368,176 @@
       <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="22"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="25"/>
       <c r="L17" s="22"/>
       <c r="M17" s="3"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="24"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="22"/>
       <c r="S17" s="25"/>
       <c r="T17" s="22"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="22"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="24"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="15"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="28"/>
+      <c r="S20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="28"/>
+      <c r="S21" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="28"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -1497,647 +1554,610 @@
       <c r="S22" s="20"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="30"/>
+      <c r="T23" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="30"/>
+      <c r="T25" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="28"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="15"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="19"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="35"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="15"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
         <v>0</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="28"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="C33" s="6"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="28"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="13">
         <v>1</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="28"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="15"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="30"/>
+      <c r="T34" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="41">
+        <v>2</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="19"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="30"/>
-      <c r="P29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="28"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="28"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="19"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="38"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="15"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="15"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="19"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="14"/>
+      <c r="N41" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="14"/>
+      <c r="L43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="14"/>
+      <c r="M44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="70">
+        <v>1</v>
+      </c>
+      <c r="P44" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>2</v>
+      </c>
+      <c r="R44" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>0</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="28"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
-        <v>1</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="30"/>
-      <c r="P38" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
-        <v>2</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="47"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P42" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S42" s="6"/>
-    </row>
-    <row r="43" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="10">
-        <v>2</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="12">
-        <v>3</v>
-      </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="D45" s="15"/>
       <c r="G45" s="16"/>
       <c r="H45" s="14"/>
-      <c r="N45" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="M45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" s="15"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="14"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>17</v>
+      <c r="A46" s="13">
+        <v>1</v>
       </c>
       <c r="B46" s="14"/>
       <c r="D46" s="15"/>
       <c r="G46" s="16"/>
       <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="M46" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>2</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="D47" s="15"/>
       <c r="G47" s="16"/>
       <c r="H47" s="14"/>
-      <c r="L47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
-        <v>1</v>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>3</v>
       </c>
       <c r="B48" s="14"/>
       <c r="D48" s="15"/>
       <c r="G48" s="16"/>
       <c r="H48" s="14"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="58">
+      <c r="M48" s="13">
         <v>1</v>
       </c>
-      <c r="P48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>2</v>
-      </c>
-      <c r="R48" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S48" s="9">
-        <v>3</v>
+      <c r="N48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B49" s="14"/>
       <c r="D49" s="15"/>
       <c r="G49" s="16"/>
       <c r="H49" s="14"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14"/>
-      <c r="O49" s="15"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="14"/>
+      <c r="M49" s="13">
+        <v>2</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
-        <v>1</v>
-      </c>
+      <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="D50" s="15"/>
       <c r="G50" s="16"/>
       <c r="H50" s="14"/>
-      <c r="L50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="14"/>
-      <c r="O50" s="15"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="14"/>
+      <c r="M50" s="13">
+        <v>3</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B51" s="14"/>
       <c r="D51" s="15"/>
       <c r="G51" s="16"/>
       <c r="H51" s="14"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="14"/>
+      <c r="M51" s="13">
+        <v>4</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" s="14"/>
       <c r="D52" s="15"/>
       <c r="G52" s="16"/>
       <c r="H52" s="14"/>
-      <c r="L52" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="19"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
@@ -2145,96 +2165,94 @@
       <c r="S52" s="18"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
-        <v>4</v>
-      </c>
+      <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="D53" s="15"/>
       <c r="G53" s="16"/>
       <c r="H53" s="14"/>
-      <c r="L53" s="13">
-        <v>0</v>
-      </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O53" s="22" t="s">
-        <v>25</v>
+      <c r="M53" s="13">
+        <v>5</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Q53" s="2"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="R53" s="52"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="B54" s="14"/>
       <c r="D54" s="15"/>
       <c r="G54" s="16"/>
       <c r="H54" s="14"/>
-      <c r="L54" s="13">
-        <v>1</v>
-      </c>
-      <c r="M54" s="14"/>
-      <c r="N54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="M54" s="13">
+        <v>6</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" s="24"/>
       <c r="P54" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="25"/>
-      <c r="S54" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B55" s="14"/>
       <c r="D55" s="15"/>
       <c r="G55" s="16"/>
       <c r="H55" s="14"/>
-      <c r="L55" s="13">
+      <c r="M55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="31"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="18"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" s="14"/>
       <c r="D56" s="15"/>
       <c r="G56" s="16"/>
       <c r="H56" s="14"/>
-      <c r="L56" s="13">
-        <v>3</v>
-      </c>
-      <c r="M56" s="14"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="31"/>
+      <c r="M56" s="13">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="39"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
@@ -2242,440 +2260,295 @@
       <c r="D57" s="15"/>
       <c r="G57" s="16"/>
       <c r="H57" s="14"/>
-      <c r="L57" s="13">
-        <v>4</v>
-      </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="22"/>
+      <c r="M57" s="13">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="P57" s="4"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="31"/>
+      <c r="Q57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" s="39"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="14"/>
       <c r="D58" s="15"/>
       <c r="G58" s="16"/>
       <c r="H58" s="14"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="20"/>
+      <c r="M58" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="16"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="20"/>
       <c r="S58" s="18"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
-        <v>0</v>
+      <c r="A59" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="B59" s="14"/>
       <c r="D59" s="15"/>
       <c r="G59" s="16"/>
       <c r="H59" s="14"/>
-      <c r="L59" s="13">
+      <c r="M59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" s="30"/>
+      <c r="S59" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="31"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
-        <v>1</v>
       </c>
       <c r="B60" s="14"/>
       <c r="D60" s="15"/>
       <c r="G60" s="16"/>
       <c r="H60" s="14"/>
-      <c r="L60" s="13">
+      <c r="M60" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" s="30"/>
+      <c r="S60" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M60" s="14"/>
-      <c r="N60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O60" s="24"/>
-      <c r="P60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="31"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="D61" s="15"/>
       <c r="G61" s="16"/>
       <c r="H61" s="14"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-      <c r="O61" s="15"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="14"/>
+      <c r="M61" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N61" s="6"/>
+      <c r="O61" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="39" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62" s="14"/>
       <c r="D62" s="15"/>
       <c r="G62" s="16"/>
       <c r="H62" s="14"/>
-      <c r="L62" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="18"/>
+      <c r="M62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N62" s="6"/>
+      <c r="O62" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B63" s="14"/>
       <c r="D63" s="15"/>
       <c r="G63" s="16"/>
       <c r="H63" s="14"/>
-      <c r="L63" s="13">
-        <v>0</v>
-      </c>
-      <c r="M63" s="14"/>
-      <c r="N63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O63" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="S63" s="42"/>
+      <c r="M63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N63" s="6"/>
+      <c r="O63" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="39"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="D64" s="15"/>
       <c r="G64" s="16"/>
       <c r="H64" s="14"/>
-      <c r="L64" s="13">
-        <v>1</v>
-      </c>
-      <c r="M64" s="14"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="S64" s="42"/>
+      <c r="M64" s="13"/>
+      <c r="O64" s="15"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="14"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B65" s="14"/>
       <c r="D65" s="15"/>
       <c r="G65" s="16"/>
       <c r="H65" s="14"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="14"/>
-      <c r="O65" s="15"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="14"/>
+      <c r="M65" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="33"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="15"/>
       <c r="G66" s="16"/>
       <c r="H66" s="14"/>
-      <c r="L66" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="18"/>
+      <c r="M66" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="38"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="60"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="D67" s="15"/>
       <c r="G67" s="16"/>
       <c r="H67" s="14"/>
-      <c r="L67" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M67" s="14"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R67" s="30"/>
-      <c r="S67" s="42" t="s">
-        <v>39</v>
-      </c>
+      <c r="M67" s="13"/>
+      <c r="O67" s="15"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="14"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="B68" s="14"/>
       <c r="D68" s="15"/>
       <c r="G68" s="16"/>
       <c r="H68" s="14"/>
-      <c r="L68" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M68" s="14"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" s="30"/>
-      <c r="S68" s="42" t="s">
-        <v>40</v>
-      </c>
+      <c r="M68" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N68" s="21"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>9</v>
+      <c r="A69" s="13">
+        <v>0</v>
       </c>
       <c r="B69" s="14"/>
       <c r="D69" s="15"/>
       <c r="G69" s="16"/>
       <c r="H69" s="14"/>
-      <c r="L69" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M69" s="14"/>
+      <c r="M69" s="13">
+        <v>0</v>
+      </c>
       <c r="N69" s="6"/>
-      <c r="O69" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="O69" s="29"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="5"/>
+      <c r="Q69" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="R69" s="30"/>
-      <c r="S69" s="42" t="s">
-        <v>41</v>
-      </c>
+      <c r="S69" s="61"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>10</v>
+      <c r="A70" s="13">
+        <v>1</v>
       </c>
       <c r="B70" s="14"/>
       <c r="D70" s="15"/>
       <c r="G70" s="16"/>
       <c r="H70" s="14"/>
-      <c r="L70" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M70" s="14"/>
+      <c r="M70" s="13">
+        <v>1</v>
+      </c>
       <c r="N70" s="6"/>
-      <c r="O70" s="29" t="s">
-        <v>47</v>
+      <c r="O70" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="P70" s="6"/>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="R70" s="30"/>
-      <c r="S70" s="42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="14"/>
-      <c r="L71" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M71" s="14"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="42"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="14"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="14"/>
-      <c r="O72" s="15"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="14"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>0</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="14"/>
-      <c r="L73" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="18"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
-        <v>1</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="14"/>
-      <c r="L74" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="M74" s="36"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="64"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="66"/>
-    </row>
-    <row r="75" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44">
+      <c r="S70" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41">
         <v>2</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="45"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="14"/>
-      <c r="O75" s="15"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="14"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L76" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="18"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L77" s="13">
-        <v>0</v>
-      </c>
-      <c r="M77" s="14"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R77" s="30"/>
-      <c r="S77" s="67"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L78" s="13">
-        <v>1</v>
-      </c>
-      <c r="M78" s="14"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R78" s="30"/>
-      <c r="S78" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L79" s="44">
+      <c r="B71" s="42"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="42"/>
+      <c r="M71" s="41">
         <v>2</v>
       </c>
-      <c r="M79" s="45"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="68"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>